--- a/data/trans_dic/P15A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02112840081654538</v>
+        <v>0.02132090849430035</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01230678572852789</v>
+        <v>0.01114711112229528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01365632479450427</v>
+        <v>0.01408904333897667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01547315979331948</v>
+        <v>0.01505937664140886</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01300889675340583</v>
+        <v>0.01452913851155894</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0228714605718478</v>
+        <v>0.0231287114559454</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01687173432737368</v>
+        <v>0.01701233629532828</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01998108789221008</v>
+        <v>0.01981347830058555</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01989435842924562</v>
+        <v>0.02072136360056616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01918498832734071</v>
+        <v>0.0202980130480699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01875002852625203</v>
+        <v>0.01835765501983856</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02100986588382224</v>
+        <v>0.02032847259152386</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05003000900150205</v>
+        <v>0.05000201701761253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03414555806474105</v>
+        <v>0.03093481876075324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03720509769565613</v>
+        <v>0.03694634823011419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04794889501843768</v>
+        <v>0.04852366296242475</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03666760797273846</v>
+        <v>0.0374237619369474</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05612818277995379</v>
+        <v>0.05399533157930656</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0439630324168275</v>
+        <v>0.04405497160358423</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03741320934057789</v>
+        <v>0.0372861046733949</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03811445141730184</v>
+        <v>0.03793067339964616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03787656738221886</v>
+        <v>0.03779369632477001</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03577210638116466</v>
+        <v>0.03625810030306498</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04072091928802588</v>
+        <v>0.03999307849558311</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03220607678311099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02935427459975359</v>
+        <v>0.02935427459975358</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03111886844542969</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03136589292118705</v>
+        <v>0.0310563582177821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01992686594238816</v>
+        <v>0.02064643641766456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02251208003051147</v>
+        <v>0.02234223501719458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01885494359500075</v>
+        <v>0.01899630741300137</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02111342516476012</v>
+        <v>0.02107541339262045</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01928302088445178</v>
+        <v>0.01925534729343112</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01443964524988945</v>
+        <v>0.01478585252753466</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02019650958945953</v>
+        <v>0.01988922943461675</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0296650843550545</v>
+        <v>0.02892474155329957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02164080536042836</v>
+        <v>0.02199362017602573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02019795336196998</v>
+        <v>0.02073991237444764</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02196290982805249</v>
+        <v>0.02151191188495256</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05940941310898894</v>
+        <v>0.05875011451438666</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04143872794043364</v>
+        <v>0.04395877877262836</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04535597144180742</v>
+        <v>0.04462554381449689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04328036313064777</v>
+        <v>0.04519374643753759</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.043994266687667</v>
+        <v>0.04379387983767907</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03817187128921899</v>
+        <v>0.03996657630542793</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03478493745602435</v>
+        <v>0.03527884740578727</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04241216574701489</v>
+        <v>0.04344499082695726</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04710855670947463</v>
+        <v>0.04690701932552816</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03727844099155082</v>
+        <v>0.03715285215462548</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03702077769277035</v>
+        <v>0.03519927927016952</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03966409496174464</v>
+        <v>0.03784390459882792</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.01477143777877963</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02327140114808836</v>
+        <v>0.02327140114808837</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02241291523165236</v>
+        <v>0.0222348336297098</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01607683481179488</v>
+        <v>0.01553647135459066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008318346891783736</v>
+        <v>0.008097645426589778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00996643388763036</v>
+        <v>0.009905193490148184</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02264347163867595</v>
+        <v>0.02288144688893335</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0163856233954955</v>
+        <v>0.01646236374030571</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00671630052118245</v>
+        <v>0.006620349921818304</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01959572529821912</v>
+        <v>0.01972071817195472</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02606354082894981</v>
+        <v>0.02619850558851083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01937919861731142</v>
+        <v>0.01901617434243646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009901061227387539</v>
+        <v>0.00942521897252426</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01698977986731187</v>
+        <v>0.01688238237873843</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05296757938113737</v>
+        <v>0.05182330856049782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04065999507803355</v>
+        <v>0.03891954864227483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02727301242228062</v>
+        <v>0.02698099225339898</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03287452581924052</v>
+        <v>0.032582140922375</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05151238392212758</v>
+        <v>0.05221816670456397</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04382168296886248</v>
+        <v>0.04165897391000893</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02355922979650581</v>
+        <v>0.02387842287053562</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03831051366284693</v>
+        <v>0.03867070038458289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04704884161296263</v>
+        <v>0.04654897781402915</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03677952804018248</v>
+        <v>0.03700472871862324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02229562109095984</v>
+        <v>0.02219325693560139</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03165144618504036</v>
+        <v>0.0312960377667898</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.03120347106136797</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02077241474131307</v>
+        <v>0.02077241474131308</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02503887778135263</v>
+        <v>0.02575441684442713</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02523545376929434</v>
+        <v>0.02540677765443046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02001065880729438</v>
+        <v>0.01981156152714061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01036411202027197</v>
+        <v>0.01083887976621252</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01428885156651757</v>
+        <v>0.01428006309677088</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01408125453655822</v>
+        <v>0.01423852588668075</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02199824933294309</v>
+        <v>0.02255203592583836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01648599620022739</v>
+        <v>0.01749359080094126</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0227646897871806</v>
+        <v>0.02228258448167728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0219757338269019</v>
+        <v>0.02199663732113728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02372384869142419</v>
+        <v>0.02403138133829366</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01580003610050402</v>
+        <v>0.0159172517922966</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04894371153115732</v>
+        <v>0.04883708478940083</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05249780638818171</v>
+        <v>0.04979611408278985</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04485275127694544</v>
+        <v>0.04298555694706247</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.026868531756288</v>
+        <v>0.02727132063508381</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03387164212125205</v>
+        <v>0.03441959737188816</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03482206974285581</v>
+        <v>0.03282851147212578</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04580162088533729</v>
+        <v>0.04772585079976752</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03118601780527128</v>
+        <v>0.03190321787700773</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03778022925255381</v>
+        <v>0.03726491358847529</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0375917847173909</v>
+        <v>0.03771216740292931</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04019024213734389</v>
+        <v>0.03978995459374213</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02683908127967237</v>
+        <v>0.02730115251795352</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14663</v>
+        <v>14797</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8657</v>
+        <v>7842</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9215</v>
+        <v>9507</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10687</v>
+        <v>10402</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8955</v>
+        <v>10001</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15943</v>
+        <v>16122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11352</v>
+        <v>11447</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14648</v>
+        <v>14526</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27501</v>
+        <v>28644</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26869</v>
+        <v>28428</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25268</v>
+        <v>24739</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>29914</v>
+        <v>28944</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34721</v>
+        <v>34702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24020</v>
+        <v>21762</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25106</v>
+        <v>24931</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33119</v>
+        <v>33516</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25240</v>
+        <v>25761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39124</v>
+        <v>37637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29580</v>
+        <v>29642</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27428</v>
+        <v>27335</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52688</v>
+        <v>52434</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53047</v>
+        <v>52931</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48208</v>
+        <v>48863</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57979</v>
+        <v>56943</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30168</v>
+        <v>29870</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20284</v>
+        <v>21017</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23017</v>
+        <v>22843</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19777</v>
+        <v>19926</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20446</v>
+        <v>20409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19904</v>
+        <v>19875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15059</v>
+        <v>15420</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21627</v>
+        <v>21298</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57259</v>
+        <v>55830</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44366</v>
+        <v>45090</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41716</v>
+        <v>42835</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46556</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57140</v>
+        <v>56506</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42182</v>
+        <v>44748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46373</v>
+        <v>45627</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45398</v>
+        <v>47404</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42604</v>
+        <v>42410</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39400</v>
+        <v>41253</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36278</v>
+        <v>36793</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45417</v>
+        <v>46523</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90929</v>
+        <v>90540</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>76426</v>
+        <v>76168</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>76461</v>
+        <v>72699</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84078</v>
+        <v>80220</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15207</v>
+        <v>15087</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12180</v>
+        <v>11771</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6318</v>
+        <v>6151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8004</v>
+        <v>7955</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15485</v>
+        <v>15647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12734</v>
+        <v>12794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5272</v>
+        <v>5197</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15917</v>
+        <v>16018</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35508</v>
+        <v>35692</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>29743</v>
+        <v>29186</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15293</v>
+        <v>14558</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27444</v>
+        <v>27271</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35939</v>
+        <v>35163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30805</v>
+        <v>29486</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20715</v>
+        <v>20493</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26401</v>
+        <v>26166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35226</v>
+        <v>35709</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34057</v>
+        <v>32376</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18494</v>
+        <v>18745</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31118</v>
+        <v>31411</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64097</v>
+        <v>63416</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>56449</v>
+        <v>56795</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>34437</v>
+        <v>34279</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51128</v>
+        <v>50553</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23592</v>
+        <v>24266</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23917</v>
+        <v>24079</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18761</v>
+        <v>18575</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10261</v>
+        <v>10731</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14841</v>
+        <v>14831</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14812</v>
+        <v>14978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22961</v>
+        <v>23539</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>18449</v>
+        <v>19576</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45093</v>
+        <v>44138</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>43944</v>
+        <v>43985</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>47005</v>
+        <v>47614</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>33324</v>
+        <v>33571</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>46116</v>
+        <v>46015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49754</v>
+        <v>47194</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42052</v>
+        <v>40302</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26602</v>
+        <v>27000</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35179</v>
+        <v>35749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>36629</v>
+        <v>34532</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47807</v>
+        <v>49815</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34898</v>
+        <v>35701</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>74836</v>
+        <v>73816</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>75170</v>
+        <v>75411</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>79631</v>
+        <v>78838</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56606</v>
+        <v>57581</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
     </row>
     <row r="24">
